--- a/Users.xlsx
+++ b/Users.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanp\OneDrive\Escritorio\Semestre 6\BD_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanp\OneDrive\Escritorio\Semestre 6\D_proyectOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -527,22 +527,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -558,8 +558,9 @@
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -576,7 +577,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -593,7 +594,7 @@
         <v>45402</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -610,7 +611,7 @@
         <v>45465</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -627,7 +628,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -644,7 +645,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -661,7 +662,7 @@
         <v>45651</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -678,7 +679,7 @@
         <v>45309</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -695,7 +696,7 @@
         <v>45350</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -712,7 +713,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -729,7 +730,7 @@
         <v>45417</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -746,7 +747,7 @@
         <v>45454</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -763,7 +764,7 @@
         <v>45497</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -780,7 +781,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -797,7 +798,7 @@
         <v>45551</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -814,7 +815,7 @@
         <v>45616</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -831,7 +832,7 @@
         <v>45631</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -848,7 +849,7 @@
         <v>45293</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -865,7 +866,7 @@
         <v>45364</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -882,7 +883,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>Start Date</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>ava.green@example.com</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -232,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -243,9 +246,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,376 +535,439 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="C2" s="4">
         <v>44140</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="4">
         <v>45337</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="C3" s="4">
         <v>44246</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="4">
         <v>45402</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
+      <c r="C4" s="4">
         <v>44658</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="4">
         <v>45465</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5">
+      <c r="C5" s="4">
         <v>44454</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="4">
         <v>45534</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
+      <c r="C6" s="4">
         <v>44188</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="4">
         <v>45575</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5">
+      <c r="C7" s="4">
         <v>44988</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="4">
         <v>45651</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5">
+      <c r="C8" s="4">
         <v>44722</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="4">
         <v>45309</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5">
+      <c r="C9" s="4">
         <v>43704</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="4">
         <v>45350</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5">
+      <c r="C10" s="4">
         <v>44513</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="4">
         <v>45366</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5">
+      <c r="C11" s="4">
         <v>44930</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F11" s="4">
         <v>45417</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5">
+      <c r="C12" s="4">
         <v>43545</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="4">
         <v>45454</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5">
+      <c r="C13" s="4">
         <v>43981</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="4">
         <v>45497</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5">
+      <c r="C14" s="4">
         <v>44822</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="4">
         <v>45511</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5">
+      <c r="C15" s="4">
         <v>43821</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F15" s="4">
         <v>45551</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="5">
+      <c r="C16" s="4">
         <v>45136</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F16" s="4">
         <v>45616</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="5">
+      <c r="C17" s="4">
         <v>43864</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="5">
+      <c r="F17" s="4">
         <v>45631</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="5">
+      <c r="C18" s="4">
         <v>44302</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="5">
+      <c r="F18" s="4">
         <v>45293</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="5">
+      <c r="C19" s="4">
         <v>44887</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="5">
+      <c r="F19" s="4">
         <v>45364</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="5">
+      <c r="C20" s="4">
         <v>44024</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="5">
+      <c r="F20" s="4">
         <v>45437</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="5">
+      <c r="C21" s="4">
         <v>43590</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="5">
+      <c r="F21" s="4">
         <v>45482</v>
       </c>
     </row>
